--- a/Assembly/relay_ac/easyeda-bom.xlsx
+++ b/Assembly/relay_ac/easyeda-bom.xlsx
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
-  <si>
-    <t>Designator</t>
-  </si>
   <si>
     <r>
       <t/>
@@ -68,7 +65,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>100nF X2</t>
+    <t>22nF X2</t>
   </si>
   <si>
     <t>100nF</t>
@@ -95,13 +92,13 @@
     <t>33R</t>
   </si>
   <si>
-    <t>470R 2W</t>
-  </si>
-  <si>
     <t>100R 2W</t>
   </si>
   <si>
-    <t>100k 1W</t>
+    <t>150R 2W</t>
+  </si>
+  <si>
+    <t>390R 1W</t>
   </si>
   <si>
     <t>10k</t>
@@ -116,10 +113,10 @@
     <t>NP</t>
   </si>
   <si>
-    <t>MOC3043S</t>
-  </si>
-  <si>
-    <t>T410-600B-TR</t>
+    <t>MOC3042M</t>
+  </si>
+  <si>
+    <t>T810-600B-TR</t>
   </si>
   <si>
     <t>SN74HC00DR</t>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>S14K320</t>
+  </si>
+  <si>
+    <t>Designator</t>
   </si>
   <si>
     <t>C1, C2</t>
@@ -427,21 +427,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.15">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.8">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>26</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="4" spans="1:4" ht="13.8" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="5" spans="1:4" ht="13.8" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="6" spans="1:4" ht="13.8" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="7" spans="1:4" ht="13.8" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>30</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="8" spans="1:4" ht="13.8" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>31</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="9" spans="1:4" ht="13.8" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="10" spans="1:4" ht="13.8" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>33</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="11" spans="1:4" ht="13.8" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>34</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="12" spans="1:4" ht="13.8" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>35</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="13" spans="1:4" ht="13.8" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>36</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="14" spans="1:4" ht="13.8" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>37</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="15" spans="1:4" ht="13.8" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>38</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="16" spans="1:4" ht="13.8" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>39</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="17" spans="1:4" ht="13.8" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>40</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="18" spans="1:4" ht="13.8" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>41</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="19" spans="1:4" ht="13.8" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>42</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="20" spans="1:4" ht="13.8" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>43</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="21" spans="1:4" ht="13.8" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>44</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="22" spans="1:4" ht="13.8" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>45</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="23" spans="1:4" ht="13.8" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>46</v>
